--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -698,11 +698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129051648"/>
-        <c:axId val="150966272"/>
+        <c:axId val="149498880"/>
+        <c:axId val="172593152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129051648"/>
+        <c:axId val="149498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150966272"/>
+        <c:crossAx val="172593152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,7 +719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150966272"/>
+        <c:axId val="172593152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129051648"/>
+        <c:crossAx val="149498880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,11 +1326,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="152421504"/>
-        <c:axId val="152423040"/>
+        <c:axId val="174048384"/>
+        <c:axId val="174049920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152421504"/>
+        <c:axId val="174048384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152423040"/>
+        <c:crossAx val="174049920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1359,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152423040"/>
+        <c:axId val="174049920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -1372,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152421504"/>
+        <c:crossAx val="174048384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2249,14 +2249,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2287,6 +2287,9 @@
       </c>
       <c r="B3" s="4">
         <v>42925</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42929</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="官网实际项目进度" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="官网实际项目进度" sheetId="2" r:id="rId2"/>
+    <sheet name="论坛实际项目进度" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +191,21 @@
   <si>
     <t>线框图第二版</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>论坛线框图第一版</t>
+  </si>
+  <si>
+    <t>论坛线框图第二版</t>
   </si>
 </sst>
 </file>
@@ -282,484 +296,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>持续时间</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$41</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="40"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2017/7/1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2017/7/1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2017/7/4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2017/7/6</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2017/7/12</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2017/7/14</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2017/7/16</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2017/7/22</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2017/7/25</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2017/7/26</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2017/7/27</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2017/7/31</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2017/8/2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2017/7/10</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2017/7/10</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2017/7/13</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2017/7/13</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2017/7/17</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2017/7/22</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2017/7/25</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2017/7/27</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2017/7/29</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2017/8/2</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2017/8/5</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2017/8/7</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2017/8/3</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2017/8/3</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2017/8/6</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2017/8/16</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2017/8/18</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>2017/8/26</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2017/8/31</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2017/9/4</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2017/9/8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2017/9/12</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2017/9/16</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2017/9/18</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2017/9/21</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2017/9/28</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2017/9/30</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>官网</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>cms需求分析</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>cms系统选型</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cms系统扩展</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>前端框架设计与实现</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>用户管理</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>cms频道管理</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>cms权限管理</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>首页实现</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>详情页实现</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>测试</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>验收</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>部署</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>论坛</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>论坛部署</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>模板开发</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>前端框架及首页</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>普通用户的帖子发布、详情和删除</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>用户同步登录</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>用户基本信息编辑</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>板块新建、编辑</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>管理员管理帖子、管理用户</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>测试</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>验收</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>部署</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>商城</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>系统概要设计</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>系统详细设计</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>商品类别管理</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>商品管理</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>购物车管理</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>订单管理</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>支付管理</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>售后管理</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>单套首页内容管理</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>通知服务</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>常用信息管理</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>系统测试</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>验收</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>部署</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="149498880"/>
-        <c:axId val="172593152"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="149498880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172593152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="172593152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149498880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1326,11 +862,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="174048384"/>
-        <c:axId val="174049920"/>
+        <c:axId val="61850752"/>
+        <c:axId val="61852288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174048384"/>
+        <c:axId val="61850752"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1351,7 +887,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174049920"/>
+        <c:crossAx val="61852288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1359,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174049920"/>
+        <c:axId val="61852288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -1372,13 +908,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174048384"/>
+        <c:crossAx val="61850752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1393,45 +930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9295918" cy="6076709"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1755,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="J14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2248,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2300,12 +1799,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42925</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42929</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>论坛线框图第二版</t>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -862,11 +866,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61850752"/>
-        <c:axId val="61852288"/>
+        <c:axId val="63757312"/>
+        <c:axId val="75461376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61850752"/>
+        <c:axId val="63757312"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -887,7 +891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61852288"/>
+        <c:crossAx val="75461376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61852288"/>
+        <c:axId val="75461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -908,7 +912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61850752"/>
+        <c:crossAx val="63757312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="J16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1745,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1789,6 +1793,14 @@
       </c>
       <c r="C3" s="4">
         <v>42929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42932</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,7 +208,11 @@
     <t>论坛线框图第二版</t>
   </si>
   <si>
-    <t>设计</t>
+    <t>等待进一步的需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,11 +870,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="63757312"/>
-        <c:axId val="75461376"/>
+        <c:axId val="75755904"/>
+        <c:axId val="75757440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63757312"/>
+        <c:axId val="75755904"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -891,7 +895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75461376"/>
+        <c:crossAx val="75757440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75461376"/>
+        <c:axId val="75757440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -912,14 +916,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63757312"/>
+        <c:crossAx val="75755904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1749,16 +1752,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1801,6 +1803,17 @@
       </c>
       <c r="B4" s="4">
         <v>42932</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
+        <v>42938</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>官网设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛样式初步完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,11 +874,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="75755904"/>
-        <c:axId val="75757440"/>
+        <c:axId val="32766976"/>
+        <c:axId val="32781056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75755904"/>
+        <c:axId val="32766976"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -895,7 +899,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75757440"/>
+        <c:crossAx val="32781056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75757440"/>
+        <c:axId val="32781056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -916,7 +920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75755904"/>
+        <c:crossAx val="32766976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1824,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1870,6 +1874,17 @@
         <v>42929</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42933</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42939</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -874,11 +874,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="32766976"/>
-        <c:axId val="32781056"/>
+        <c:axId val="64158720"/>
+        <c:axId val="65483520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32766976"/>
+        <c:axId val="64158720"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -899,7 +899,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32781056"/>
+        <c:crossAx val="65483520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32781056"/>
+        <c:axId val="65483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -920,7 +920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32766976"/>
+        <c:crossAx val="64158720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/项目进度【包含商城】.xlsx
+++ b/项目进度【包含商城】.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>论坛样式初步完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户原因暂停-等待首付款到位后进一步确定需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,11 +878,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="64158720"/>
-        <c:axId val="65483520"/>
+        <c:axId val="89846528"/>
+        <c:axId val="89848064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64158720"/>
+        <c:axId val="89846528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -899,7 +903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65483520"/>
+        <c:crossAx val="89848064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65483520"/>
+        <c:axId val="89848064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43015"/>
@@ -920,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64158720"/>
+        <c:crossAx val="89846528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1756,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1819,6 +1823,18 @@
       <c r="B5" s="4">
         <v>42938</v>
       </c>
+      <c r="C5" s="4">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42944</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1830,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
